--- a/ValueSet-be-vs-nursing-annex81-inadequate-adherence.xlsx
+++ b/ValueSet-be-vs-nursing-annex81-inadequate-adherence.xlsx
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-be-vs-nursing-annex81-inadequate-adherence.xlsx
+++ b/ValueSet-be-vs-nursing-annex81-inadequate-adherence.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-nursing-annex81-inadequate-adherence</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-nursing-annex81-inadequate-adherence</t>
   </si>
   <si>
     <t>Version</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-annex81-inadequate-adherence</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-annex81-inadequate-adherence</t>
   </si>
 </sst>
 </file>
